--- a/src/Excel/entregable1/ActualizacionIntangibleCTS.xlsx
+++ b/src/Excel/entregable1/ActualizacionIntangibleCTS.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455D6A6E-A0FC-4ABC-9C91-EAF3903B6E6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A5B366-5832-4564-8710-DBEC19611DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActualizacionIntangibleCTS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>usuario</t>
   </si>
@@ -66,30 +66,9 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>6 mar. 2023, 11:29:17</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 11:35:51</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 11:37:27</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 11:38:21</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 14:09:00</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 14:27:41</t>
-  </si>
-  <si>
     <t>AAACT23065SGF674R</t>
   </si>
   <si>
@@ -97,13 +76,18 @@
   </si>
   <si>
     <t>6 mar. 2023, 15:54:05</t>
+  </si>
+  <si>
+    <t>usuarioAp</t>
+  </si>
+  <si>
+    <t>SCISNEROSC1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,22 +414,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -461,19 +446,22 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -487,17 +475,20 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
